--- a/BalanceSheet/XPO_bal.xlsx
+++ b/BalanceSheet/XPO_bal.xlsx
@@ -1922,19 +1922,19 @@
         </is>
       </c>
       <c r="B14" s="0" t="n">
-        <v>174000000.0</v>
+        <v>1255000000.0</v>
       </c>
       <c r="C14" s="0" t="n">
-        <v>172000000.0</v>
+        <v>1025000000.0</v>
       </c>
       <c r="D14" s="0" t="n">
-        <v>-208000000.0</v>
+        <v>840000000.0</v>
       </c>
       <c r="E14" s="0" t="n">
-        <v>-69000000.0</v>
+        <v>1057000000.0</v>
       </c>
       <c r="F14" s="0" t="n">
-        <v>33000000.0</v>
+        <v>1157000000.0</v>
       </c>
       <c r="G14" s="0" t="n">
         <v>1132000000.0</v>
@@ -2898,19 +2898,19 @@
         </is>
       </c>
       <c r="B21" s="0" t="n">
-        <v>-85000000.0</v>
+        <v>371000000.0</v>
       </c>
       <c r="C21" s="0" t="n">
-        <v>1000000.0</v>
+        <v>494000000.0</v>
       </c>
       <c r="D21" s="0" t="n">
-        <v>5000000.0</v>
+        <v>507000000.0</v>
       </c>
       <c r="E21" s="0" t="n">
-        <v>-2000000.0</v>
+        <v>505000000.0</v>
       </c>
       <c r="F21" s="0" t="n">
-        <v>20000000.0</v>
+        <v>495000000.0</v>
       </c>
       <c r="G21" s="0" t="n">
         <v>483000000.0</v>
